--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\node.js\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\nam-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C44B4-9388-4060-BC5E-BA1636607C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5AE4BA-99A3-4D15-9496-2F667B762102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kỳ học</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>rvbhnj</t>
-  </si>
-  <si>
-    <t>sâsasa</t>
-  </si>
-  <si>
-    <t>sssss</t>
   </si>
 </sst>
 </file>
@@ -441,14 +435,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -473,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -484,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -496,7 +490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -504,15 +498,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\nam-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5AE4BA-99A3-4D15-9496-2F667B762102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AD8DB3-22C1-46D1-9F29-BCCB0E80D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
+    <workbookView xWindow="7656" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{D22EBEA8-8484-4A64-8FA1-3D10B6D75275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Kỳ học</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Tuổi trẻ đáng giá bao nhiêu</t>
-  </si>
-  <si>
-    <t>rvbhnj</t>
   </si>
 </sst>
 </file>
@@ -429,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364594D-F419-4B06-A105-7223E271658E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +466,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -480,7 +477,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
@@ -488,19 +485,6 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,47 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\nam-blog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7812A-5F6F-42B6-A2D2-7FD160E8AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3384" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Kỳ học</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Tên môn</t>
+  </si>
+  <si>
+    <t>số tín chỉ</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Physics I</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Differential Equations and Series</t>
+  </si>
+  <si>
+    <t>Physics II</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>Technical Drawing I</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343434"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343434"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,14 +108,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,62 +450,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Kỳ học</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Ảnh bìa</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Tiêu đề</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="str">
-        <v>Algorithms and problems for engineers</v>
-      </c>
-      <c r="D2" t="str">
-        <v>https://isachhay.net/wp-content/uploads/2018/12/tuoi-tre-dang-gia-bao-nhieu-pdf-ebook.jpg</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>3</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Hdd</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://vufo.org.vn/data/data/quynhhoa/2019/09/ATV_0554.png</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
-        <v>C++</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://cdnmedia.baotintuc.vn/Upload/DMDnZyELa7xUDTdLsa19w/files/2020/08/070820/Viet-su-noi%20gi.jpg</v>
-      </c>
-    </row>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1 D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,91 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\nam-blog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA7812A-5F6F-42B6-A2D2-7FD160E8AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="3384" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Kỳ học</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Tên môn</t>
-  </si>
-  <si>
-    <t>số tín chỉ</t>
-  </si>
-  <si>
-    <t>Calculus I</t>
-  </si>
-  <si>
-    <t>Algebra</t>
-  </si>
-  <si>
-    <t>Physics I</t>
-  </si>
-  <si>
-    <t>Calculus II</t>
-  </si>
-  <si>
-    <t>Differential Equations and Series</t>
-  </si>
-  <si>
-    <t>Physics II</t>
-  </si>
-  <si>
-    <t>Probability and Statistics</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Science</t>
-  </si>
-  <si>
-    <t>Technical Drawing I</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF343434"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF343434"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,24 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -450,134 +396,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Kỳ học</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Tên môn</v>
+      </c>
+      <c r="C1" t="str">
+        <v>số tín chỉ</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Link</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Calculus I</v>
+      </c>
+      <c r="C2" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Algebra</v>
+      </c>
+      <c r="C3" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B4" t="str">
+        <v>Physics I</v>
+      </c>
+      <c r="C4" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Calculus II</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Differential Equations and Series</v>
+      </c>
+      <c r="C6" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Physics II</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Probability and Statistics</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Introduction to Computer Science</v>
+      </c>
+      <c r="C9" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>3</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Technical Drawing I</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>22</v>
+      </c>
+      <c r="C11" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 D1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,44 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\nam-blog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88626FD2-29D6-4086-884C-00ACA20F0DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3384" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+  <si>
+    <t>Kỳ học</t>
+  </si>
+  <si>
+    <t>Tên môn</t>
+  </si>
+  <si>
+    <t>số tín chỉ</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Calculus 1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Physics 1</t>
+  </si>
+  <si>
+    <t>Calculus 2</t>
+  </si>
+  <si>
+    <t>Differential Equations and Series</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Physics 2</t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>Technical Drawing I</t>
+  </si>
+  <si>
+    <t>General Chemistry</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Linear Circuits 1</t>
+  </si>
+  <si>
+    <t>Linear Circuit Lab 1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Linear Circuits 2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Electronics 1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Electronics 2</t>
+  </si>
+  <si>
+    <t>Digital System Design</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Computer Interface Circuits</t>
+  </si>
+  <si>
+    <t>Industrial Economics</t>
+  </si>
+  <si>
+    <t>Writing Skills III</t>
+  </si>
+  <si>
+    <t>Group Communication</t>
+  </si>
+  <si>
+    <t>Algorithms and Problems for Engineers</t>
+  </si>
+  <si>
+    <t>Microprocessors and Assembly</t>
+  </si>
+  <si>
+    <t>Fundamentals of Logic Design</t>
+  </si>
+  <si>
+    <t>Statics</t>
+  </si>
+  <si>
+    <t>Technical Drawing</t>
+  </si>
+  <si>
+    <t>Introductory Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Dynamics</t>
+  </si>
+  <si>
+    <t>Workshop Practicum</t>
+  </si>
+  <si>
+    <t>Strength of Materials</t>
+  </si>
+  <si>
+    <t>Measurement and Instrumentations</t>
+  </si>
+  <si>
+    <t>Mechanical Design</t>
+  </si>
+  <si>
+    <t>Introduction to Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Physics III</t>
+  </si>
+  <si>
+    <t>CAD/CAM and CNC</t>
+  </si>
+  <si>
+    <t>Engineer's Ethics and Environmental Protection</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1JUFaFtii-jntJcvjlOxP6yYghMm-GgLD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1fTUZr9TiWts7ldm7LWlmL2wQtbM5A-9c</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1xx8xpune7TCh9j_0w5GOJfoZUBNaqc3N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1rVOt2x3-yLLrHthTss3SsHipRKDWyUX4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1IvwTkjHTrf66g21C8zkcM26Nh-FDAz4C</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1SyrVEiaKQ2qJCoQUBSmd4i9bXfUCZIIe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1PabHY3_d13lIcgwXSSJikTMVh7hHbjIF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1ML--JLWdL3fdxw5B7ja4xGfHCOuPC4C0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1UQsIIKxR63xAuMQlSvYOsbG3iv9q-9iJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1IMH-vQ4ZjDGOVYf4eiaNnY7nvpQbn1bs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1zK2DwJS3GFMviikMP7R63RKLppWzipta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1ku6HhOO66ScoN4CY3XcoVC6b1XTZ7DGZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/17ekpg8BHf8TSubCrweAYA8N4AanrKPNa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1VGzYPHmphF2Gleln1_cbU1G3zjQ-9GXw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1eFJGmvx23JpZzM23VxOBNkcG-0Yy2qeO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1vTClO0_-cMKilHPB2KRT_4ZocT8HaFWk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1P22RUns2oE3tYvyfZmOZzAPBDU2tB9wx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1kXV_NV3s70oE9wNUT948epjFUOvpFWhz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1WkFDN7u7eQ3eahBdQZWCGQbBJrd3kIAG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1sTE39xWo120EGG8NScbO3n-MSe76htxY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1wlCN6FlXLbqDxkdQALJku-MrwV8EJeUt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1QxyKxkfyUlBWAWl-KdckrvkWM-50mj45</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1uOuBdK-5r9Ll67CtGvAGk0zW7DvLDaCs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1InSqTZyoi1oB2QE6RXO6y5fi3rhLX0Hi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1ONYVejpCwtFE9bPxXyVXzRhJS5dF3Rty</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1CfEyw3w91KRKfcJrYL-RHC6JuMSQWG4a</t>
+  </si>
+  <si>
+    <t>https://tailieuhust.com/tong-on-dai-so-tuyen-tinh/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/1gpH0ll0DA35Mb8uMroBIrW-YJ3coHCvu</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343434"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,14 +290,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,139 +631,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Kỳ học</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Tên môn</v>
-      </c>
-      <c r="C1" t="str">
-        <v>số tín chỉ</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Link</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Calculus I</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>1</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Algebra</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Physics I</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Calculus II</v>
-      </c>
-      <c r="C5" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Differential Equations and Series</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
         <v>3</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>3</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Physics II</v>
-      </c>
-      <c r="C7" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Probability and Statistics</v>
-      </c>
-      <c r="C8" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>3</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Introduction to Computer Science</v>
-      </c>
-      <c r="C9" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>3</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Technical Drawing I</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>3</v>
-      </c>
-      <c r="B11" t="str">
-        <v>22</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError sqref="A1:D1 A36 A3:C3 A2:C2 A9:C9 A5:C5 A6:C6 A23:C23 A22:C22 A17:C17 A15:C15 A16:C16 A26:C26 A24:C24 A30:C30 A28:C28 A21:D21 A19:C19 A35:C35 A33:C33 A14:C14 A12:C12 A18:C18 A13:C13 A32:C32 A31:C31 A4:C4 A7:C7 A34:C34 A8:C8 A25:C25 A11:C11 A10:C10 A29:C29 A27:C27 A20:C20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>